--- a/docs/needAdjustOK.xlsx
+++ b/docs/needAdjustOK.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,35 +396,133 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>85CAFE1030001747</v>
+        <v>POST009112-5</v>
       </c>
       <c r="B2" t="str">
-        <v>85度C  南科群創店</v>
+        <v>秀林和平郵局(花蓮12支)</v>
       </c>
       <c r="C2" t="str">
-        <v>台南市新市市環西路一段3號</v>
+        <v>花蓮縣秀林鄉和平村113號</v>
       </c>
       <c r="D2" t="str">
-        <v>台南</v>
+        <v>花蓮</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>77777</v>
+        <v>POST014122-5</v>
       </c>
       <c r="B3" t="str">
-        <v>鋼鐵韓粉</v>
+        <v>和平梨山郵局(台中94支)</v>
       </c>
       <c r="C3" t="str">
-        <v>雲林縣斗六夜市</v>
+        <v>台中市和平區梨山村中正路89號</v>
       </c>
       <c r="D3" t="str">
+        <v>台中</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>SET180632</v>
+      </c>
+      <c r="B4" t="str">
+        <v>統一超商  環山店</v>
+      </c>
+      <c r="C4" t="str">
+        <v>台中市和平區中興路三段64-5、64-6號</v>
+      </c>
+      <c r="D4" t="str">
+        <v>台中</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TCAT009203</v>
+      </c>
+      <c r="B5" t="str">
+        <v>統一速達    梨山衛星所</v>
+      </c>
+      <c r="C5" t="str">
+        <v>台中市和平區梨山村福壽路5號之1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>台中</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TCAT223010</v>
+      </c>
+      <c r="B6" t="str">
+        <v>統一速達  梨山衛星所</v>
+      </c>
+      <c r="C6" t="str">
+        <v>台中市和平區梨山村福壽路5號之1</v>
+      </c>
+      <c r="D6" t="str">
+        <v>台中</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TCATOA223010</v>
+      </c>
+      <c r="B7" t="str">
+        <v>統一速達  梨山衛星所</v>
+      </c>
+      <c r="C7" t="str">
+        <v>台中市和平區梨山村福壽路5號之1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>台中</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TRA057</v>
+      </c>
+      <c r="B8" t="str">
+        <v>台灣鐵路管理局　和平站</v>
+      </c>
+      <c r="C8" t="str">
+        <v>花蓮縣秀林鄉和平村２７６號</v>
+      </c>
+      <c r="D8" t="str">
+        <v>花蓮</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TRA057出入</v>
+      </c>
+      <c r="B9" t="str">
+        <v>台灣鐵路管理局　和平站  出入口</v>
+      </c>
+      <c r="C9" t="str">
+        <v>花蓮縣秀林鄉和平村２７６號</v>
+      </c>
+      <c r="D9" t="str">
+        <v>花蓮</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TRA375</v>
+      </c>
+      <c r="B10" t="str">
+        <v>台灣鐵路管理局  阿里山站</v>
+      </c>
+      <c r="C10" t="str">
+        <v>嘉義縣阿里山鄉中正村1號</v>
+      </c>
+      <c r="D10" t="str">
         <v>嘉義</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
   </ignoredErrors>
 </worksheet>
 </file>